--- a/WIP/Source/QLHS_2/khoi-them-suc-3.xlsx
+++ b/WIP/Source/QLHS_2/khoi-them-suc-3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_____________GIAO LY -Dung\phieu diem giao ly\ban tong ket cuoi nam. NH 2017-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThuViet\Downloads\NM CNPM\Github\NhapMonCongNghePhanMem\WIP\Source\QLHS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TS3A" sheetId="4" r:id="rId1"/>
     <sheet name="TS3B" sheetId="5" r:id="rId2"/>
     <sheet name="TS3C" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="217">
   <si>
     <t>STT</t>
   </si>
@@ -834,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1142,11 +1142,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,11 +1375,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,49 +1415,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1428,18 +1441,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1469,9 +1482,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1755,99 +1776,99 @@
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="6.36328125" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="4.109375" customWidth="1"/>
+    <col min="6" max="8" width="4.08984375" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="2.5546875" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" customWidth="1"/>
+    <col min="11" max="11" width="3.54296875" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" customWidth="1"/>
+    <col min="13" max="13" width="3.90625" customWidth="1"/>
+    <col min="14" max="14" width="2.54296875" customWidth="1"/>
+    <col min="15" max="15" width="3.6328125" customWidth="1"/>
+    <col min="16" max="16" width="4.54296875" customWidth="1"/>
+    <col min="17" max="17" width="3.90625" customWidth="1"/>
+    <col min="18" max="18" width="7.90625" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="6.21875" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" customWidth="1"/>
+    <col min="24" max="24" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:24" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="70" t="s">
         <v>28</v>
       </c>
@@ -1856,27 +1877,27 @@
         <v>29</v>
       </c>
       <c r="H3" s="71"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66" t="s">
+      <c r="L3" s="73"/>
+      <c r="M3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68" t="s">
+      <c r="N3" s="73"/>
+      <c r="O3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="67" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="70" t="s">
@@ -1887,21 +1908,21 @@
         <v>35</v>
       </c>
       <c r="U3" s="71"/>
-      <c r="V3" s="68" t="s">
+      <c r="V3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="78" t="s">
+      <c r="W3" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="72" t="s">
+      <c r="X3" s="78" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
@@ -1914,8 +1935,8 @@
       <c r="H4" s="49">
         <v>2</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="49">
         <v>1</v>
       </c>
@@ -1928,9 +1949,9 @@
       <c r="N4" s="49">
         <v>2</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
       <c r="R4" s="49" t="s">
         <v>7</v>
       </c>
@@ -1943,11 +1964,11 @@
       <c r="U4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="69"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="73"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="68"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2015,7 +2036,7 @@
       <c r="W5" s="47"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2051,7 +2072,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2119,7 +2140,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2187,7 +2208,7 @@
       <c r="W8" s="16"/>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2253,7 +2274,7 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2321,7 +2342,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2389,7 +2410,7 @@
       </c>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2425,7 +2446,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -2493,7 +2514,7 @@
       <c r="W13" s="16"/>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2561,7 +2582,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -2629,7 +2650,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2697,7 +2718,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -2765,7 +2786,7 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -2833,7 +2854,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -2901,7 +2922,7 @@
       <c r="W19" s="16"/>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -2967,7 +2988,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -3035,7 +3056,7 @@
       <c r="W21" s="16"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -3103,7 +3124,7 @@
       <c r="W22" s="16"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -3139,7 +3160,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -3207,7 +3228,7 @@
       <c r="W24" s="16"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -3275,7 +3296,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -3343,7 +3364,7 @@
       </c>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -3411,7 +3432,7 @@
       </c>
       <c r="X27" s="19"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -3479,7 +3500,7 @@
       <c r="W28" s="16"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -3547,7 +3568,7 @@
       <c r="W29" s="16"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -3615,7 +3636,7 @@
       <c r="W30" s="16"/>
       <c r="X30" s="19"/>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -3681,7 +3702,7 @@
       </c>
       <c r="X31" s="19"/>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -3749,7 +3770,7 @@
       <c r="W32" s="16"/>
       <c r="X32" s="19"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -3787,7 +3808,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>30</v>
       </c>
@@ -3855,7 +3876,7 @@
       </c>
       <c r="X34" s="22"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3882,61 +3903,71 @@
       <c r="X35" s="3"/>
     </row>
     <row r="36" spans="1:24" ht="135" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="77"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="77"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:A4"/>
@@ -3948,16 +3979,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thong bao" error="Nhập số từ 0 đến 10" sqref="E5:I34 P5 P13:P22 P7:P11 P24:P32 P34">
@@ -3979,106 +4000,106 @@
       <selection activeCell="A33" sqref="A33:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="4.109375" customWidth="1"/>
+    <col min="6" max="8" width="4.08984375" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" customWidth="1"/>
-    <col min="23" max="23" width="6.44140625" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" customWidth="1"/>
+    <col min="13" max="13" width="3.90625" customWidth="1"/>
+    <col min="14" max="15" width="3.6328125" customWidth="1"/>
+    <col min="16" max="16" width="3.81640625" customWidth="1"/>
+    <col min="17" max="17" width="3.6328125" customWidth="1"/>
+    <col min="18" max="18" width="8.6328125" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" customWidth="1"/>
+    <col min="21" max="21" width="8.81640625" customWidth="1"/>
+    <col min="22" max="22" width="5.36328125" customWidth="1"/>
+    <col min="23" max="23" width="6.453125" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-    </row>
-    <row r="2" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" ht="10.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="83" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="84"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="80" t="s">
         <v>30</v>
       </c>
@@ -4102,14 +4123,14 @@
       <c r="Q3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="84"/>
-      <c r="T3" s="83" t="s">
+      <c r="S3" s="83"/>
+      <c r="T3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="84"/>
+      <c r="U3" s="83"/>
       <c r="V3" s="80" t="s">
         <v>64</v>
       </c>
@@ -4120,11 +4141,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -4170,7 +4191,7 @@
       <c r="W4" s="88"/>
       <c r="X4" s="90"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -4240,7 +4261,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4308,7 +4329,7 @@
       <c r="W6" s="60"/>
       <c r="X6" s="60"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4376,7 +4397,7 @@
       <c r="W7" s="60"/>
       <c r="X7" s="60"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4444,7 +4465,7 @@
       <c r="W8" s="60"/>
       <c r="X8" s="60"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4512,7 +4533,7 @@
       <c r="W9" s="60"/>
       <c r="X9" s="60"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4580,7 +4601,7 @@
       <c r="W10" s="60"/>
       <c r="X10" s="60"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4648,7 +4669,7 @@
       <c r="W11" s="60"/>
       <c r="X11" s="60"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4716,7 +4737,7 @@
       <c r="W12" s="60"/>
       <c r="X12" s="60"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -4784,7 +4805,7 @@
       </c>
       <c r="X13" s="60"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -4852,7 +4873,7 @@
       </c>
       <c r="X14" s="60"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -4920,7 +4941,7 @@
       </c>
       <c r="X15" s="60"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -4990,7 +5011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -5058,7 +5079,7 @@
       <c r="W17" s="60"/>
       <c r="X17" s="60"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -5126,7 +5147,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="60"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -5194,7 +5215,7 @@
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -5262,7 +5283,7 @@
       <c r="W20" s="60"/>
       <c r="X20" s="60"/>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -5330,7 +5351,7 @@
       <c r="W21" s="60"/>
       <c r="X21" s="60"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -5398,7 +5419,7 @@
       <c r="W22" s="60"/>
       <c r="X22" s="60"/>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -5458,7 +5479,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -5526,7 +5547,7 @@
       <c r="W24" s="60"/>
       <c r="X24" s="60"/>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -5596,7 +5617,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -5664,7 +5685,7 @@
       <c r="W26" s="60"/>
       <c r="X26" s="60"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -5732,7 +5753,7 @@
       <c r="W27" s="60"/>
       <c r="X27" s="60"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -5800,7 +5821,7 @@
       <c r="W28" s="60"/>
       <c r="X28" s="60"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -5868,7 +5889,7 @@
       <c r="W29" s="60"/>
       <c r="X29" s="60"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -5938,7 +5959,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>27</v>
       </c>
@@ -5996,66 +6017,61 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
+    <row r="32" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
     </row>
     <row r="33" spans="1:24" ht="137.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A33:X33"/>
@@ -6072,6 +6088,11 @@
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thong bao" error="Nhập số từ 0 đến 10" sqref="E5:I31">
@@ -6089,108 +6110,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="4.109375" customWidth="1"/>
+    <col min="6" max="8" width="4.08984375" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="16" width="3.6640625" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" customWidth="1"/>
-    <col min="21" max="21" width="8.5546875" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" customWidth="1"/>
+    <col min="11" max="11" width="3.54296875" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" customWidth="1"/>
+    <col min="13" max="13" width="3.90625" customWidth="1"/>
+    <col min="14" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="4.453125" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" customWidth="1"/>
+    <col min="21" max="21" width="8.54296875" customWidth="1"/>
+    <col min="22" max="22" width="5.36328125" customWidth="1"/>
+    <col min="23" max="23" width="6.36328125" customWidth="1"/>
+    <col min="24" max="24" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-    </row>
-    <row r="2" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="83" t="s">
+      <c r="F3" s="83"/>
+      <c r="G3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="84"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="80" t="s">
         <v>30</v>
       </c>
@@ -6214,14 +6235,14 @@
       <c r="Q3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="84"/>
-      <c r="T3" s="83" t="s">
+      <c r="S3" s="83"/>
+      <c r="T3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="84"/>
+      <c r="U3" s="83"/>
       <c r="V3" s="80" t="s">
         <v>65</v>
       </c>
@@ -6232,11 +6253,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -6282,19 +6303,17 @@
       <c r="W4" s="81"/>
       <c r="X4" s="93"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="95"/>
       <c r="E5" s="8">
         <v>7</v>
       </c>
@@ -6350,17 +6369,17 @@
       <c r="W5" s="47"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="95" t="s">
         <v>161</v>
       </c>
       <c r="E6" s="16">
@@ -6418,17 +6437,17 @@
       </c>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="95" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="16">
@@ -6486,17 +6505,17 @@
       <c r="W7" s="16"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="95" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="16">
@@ -6554,17 +6573,17 @@
       </c>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="95" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="16">
@@ -6622,17 +6641,17 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="95" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="16">
@@ -6692,17 +6711,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="95" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="16">
@@ -6760,17 +6779,17 @@
       <c r="W11" s="16"/>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="95" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="16">
@@ -6828,17 +6847,17 @@
       <c r="W12" s="16"/>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="95" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="16">
@@ -6896,17 +6915,17 @@
       <c r="W13" s="16"/>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="95" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="16">
@@ -6964,17 +6983,17 @@
       <c r="W14" s="16"/>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="95" t="s">
         <v>170</v>
       </c>
       <c r="E15" s="16"/>
@@ -6998,17 +7017,17 @@
       <c r="W15" s="16"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="95" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="16"/>
@@ -7032,17 +7051,17 @@
       <c r="W16" s="16"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="95" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="16">
@@ -7100,17 +7119,17 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="95" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="16">
@@ -7168,17 +7187,17 @@
       <c r="W18" s="16"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="95" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="16">
@@ -7236,17 +7255,17 @@
       </c>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="95" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="16">
@@ -7304,17 +7323,17 @@
       <c r="W20" s="16"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="95" t="s">
         <v>178</v>
       </c>
       <c r="E21" s="16">
@@ -7372,17 +7391,17 @@
       <c r="W21" s="16"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="95" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="16">
@@ -7440,17 +7459,17 @@
       <c r="W22" s="16"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="95" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="16">
@@ -7510,17 +7529,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="95" t="s">
         <v>150</v>
       </c>
       <c r="E24" s="16">
@@ -7578,17 +7597,17 @@
       <c r="W24" s="16"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="95" t="s">
         <v>184</v>
       </c>
       <c r="E25" s="16">
@@ -7646,17 +7665,17 @@
       <c r="W25" s="16"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="95" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="16">
@@ -7714,17 +7733,17 @@
       </c>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="95" t="s">
         <v>115</v>
       </c>
       <c r="E27" s="16">
@@ -7782,17 +7801,17 @@
       <c r="W27" s="16"/>
       <c r="X27" s="19"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="95" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="16">
@@ -7850,17 +7869,17 @@
       <c r="W28" s="16"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="95" t="s">
         <v>189</v>
       </c>
       <c r="E29" s="16">
@@ -7918,17 +7937,17 @@
       <c r="W29" s="16"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="95" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="16">
@@ -7986,17 +8005,17 @@
       <c r="W30" s="16"/>
       <c r="X30" s="19"/>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="95" t="s">
         <v>193</v>
       </c>
       <c r="E31" s="16">
@@ -8054,17 +8073,17 @@
       <c r="W31" s="16"/>
       <c r="X31" s="19"/>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>28</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="95" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="25">
@@ -8122,7 +8141,7 @@
       <c r="W32" s="25"/>
       <c r="X32" s="22"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8148,61 +8167,61 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
+    <row r="34" spans="1:24" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="91"/>
       <c r="B36" s="91"/>
       <c r="C36" s="91"/>
@@ -8228,7 +8247,7 @@
       <c r="W36" s="91"/>
       <c r="X36" s="91"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="91"/>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
@@ -8255,7 +8274,42 @@
       <c r="X37" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="51">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A36:X36"/>
     <mergeCell ref="A37:X37"/>
@@ -8272,13 +8326,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thong bao" error="Nhập số từ 0 đến 10" sqref="E5:I32">

--- a/WIP/Source/QLHS_2/khoi-them-suc-3.xlsx
+++ b/WIP/Source/QLHS_2/khoi-them-suc-3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThuViet\Downloads\NM CNPM\Github\NhapMonCongNghePhanMem\WIP\Source\QLHS_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_____________GIAO LY -Dung\phieu diem giao ly\ban tong ket cuoi nam. NH 2017-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TS3A" sheetId="4" r:id="rId1"/>
     <sheet name="TS3B" sheetId="5" r:id="rId2"/>
     <sheet name="TS3C" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="217">
   <si>
     <t>STT</t>
   </si>
@@ -834,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1142,24 +1142,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1375,6 +1362,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1387,31 +1410,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1421,18 +1420,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1441,15 +1428,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1482,17 +1469,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1776,99 +1755,99 @@
       <selection activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="4.08984375" customWidth="1"/>
+    <col min="6" max="8" width="4.109375" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="3.54296875" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" customWidth="1"/>
-    <col min="13" max="13" width="3.90625" customWidth="1"/>
-    <col min="14" max="14" width="2.54296875" customWidth="1"/>
-    <col min="15" max="15" width="3.6328125" customWidth="1"/>
-    <col min="16" max="16" width="4.54296875" customWidth="1"/>
-    <col min="17" max="17" width="3.90625" customWidth="1"/>
-    <col min="18" max="18" width="7.90625" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" customWidth="1"/>
+    <col min="14" max="14" width="2.5546875" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" customWidth="1"/>
+    <col min="17" max="17" width="3.88671875" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="6.77734375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" customWidth="1"/>
-    <col min="24" max="24" width="11.36328125" customWidth="1"/>
+    <col min="23" max="23" width="6.21875" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:24" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-    </row>
-    <row r="2" spans="1:24" ht="16.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="70" t="s">
         <v>28</v>
       </c>
@@ -1877,27 +1856,27 @@
         <v>29</v>
       </c>
       <c r="H3" s="71"/>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="72" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="67" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="67" t="s">
+      <c r="Q3" s="68" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="70" t="s">
@@ -1908,21 +1887,21 @@
         <v>35</v>
       </c>
       <c r="U3" s="71"/>
-      <c r="V3" s="67" t="s">
+      <c r="V3" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="74" t="s">
+      <c r="W3" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
@@ -1935,8 +1914,8 @@
       <c r="H4" s="49">
         <v>2</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="49">
         <v>1</v>
       </c>
@@ -1949,9 +1928,9 @@
       <c r="N4" s="49">
         <v>2</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
       <c r="R4" s="49" t="s">
         <v>7</v>
       </c>
@@ -1964,11 +1943,11 @@
       <c r="U4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="79"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="69"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="73"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2036,7 +2015,7 @@
       <c r="W5" s="47"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2072,7 +2051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2140,7 +2119,7 @@
       <c r="W7" s="16"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2208,7 +2187,7 @@
       <c r="W8" s="16"/>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2274,7 +2253,7 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2342,7 +2321,7 @@
       <c r="W10" s="16"/>
       <c r="X10" s="19"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2410,7 +2389,7 @@
       </c>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2446,7 +2425,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -2514,7 +2493,7 @@
       <c r="W13" s="16"/>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -2582,7 +2561,7 @@
       <c r="W14" s="16"/>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -2650,7 +2629,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -2718,7 +2697,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -2786,7 +2765,7 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -2854,7 +2833,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -2922,7 +2901,7 @@
       <c r="W19" s="16"/>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -2988,7 +2967,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -3056,7 +3035,7 @@
       <c r="W21" s="16"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -3124,7 +3103,7 @@
       <c r="W22" s="16"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -3160,7 +3139,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -3228,7 +3207,7 @@
       <c r="W24" s="16"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -3296,7 +3275,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -3364,7 +3343,7 @@
       </c>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -3432,7 +3411,7 @@
       </c>
       <c r="X27" s="19"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -3500,7 +3479,7 @@
       <c r="W28" s="16"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -3568,7 +3547,7 @@
       <c r="W29" s="16"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -3636,7 +3615,7 @@
       <c r="W30" s="16"/>
       <c r="X30" s="19"/>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -3702,7 +3681,7 @@
       </c>
       <c r="X31" s="19"/>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -3770,7 +3749,7 @@
       <c r="W32" s="16"/>
       <c r="X32" s="19"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -3808,7 +3787,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>30</v>
       </c>
@@ -3876,7 +3855,7 @@
       </c>
       <c r="X34" s="22"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3903,71 +3882,61 @@
       <c r="X35" s="3"/>
     </row>
     <row r="36" spans="1:24" ht="135" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="77"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="77"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="77"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="77"/>
-      <c r="X37" s="77"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A36:X36"/>
-    <mergeCell ref="A37:X37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:A4"/>
@@ -3979,6 +3948,16 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A36:X36"/>
+    <mergeCell ref="A37:X37"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thong bao" error="Nhập số từ 0 đến 10" sqref="E5:I34 P5 P13:P22 P7:P11 P24:P32 P34">
@@ -4000,106 +3979,106 @@
       <selection activeCell="A33" sqref="A33:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="4.08984375" customWidth="1"/>
+    <col min="6" max="8" width="4.109375" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" customWidth="1"/>
-    <col min="13" max="13" width="3.90625" customWidth="1"/>
-    <col min="14" max="15" width="3.6328125" customWidth="1"/>
-    <col min="16" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="3.6328125" customWidth="1"/>
-    <col min="18" max="18" width="8.6328125" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" customWidth="1"/>
-    <col min="21" max="21" width="8.81640625" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" customWidth="1"/>
-    <col min="23" max="23" width="6.453125" customWidth="1"/>
-    <col min="24" max="24" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" customWidth="1"/>
+    <col min="14" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.77734375" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="6.77734375" customWidth="1"/>
+    <col min="21" max="21" width="8.77734375" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.44140625" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-    </row>
-    <row r="2" spans="1:24" ht="10.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+    </row>
+    <row r="2" spans="1:24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="82" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="80" t="s">
         <v>30</v>
       </c>
@@ -4123,14 +4102,14 @@
       <c r="Q3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="82" t="s">
+      <c r="S3" s="84"/>
+      <c r="T3" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="83"/>
+      <c r="U3" s="84"/>
       <c r="V3" s="80" t="s">
         <v>64</v>
       </c>
@@ -4141,11 +4120,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -4191,7 +4170,7 @@
       <c r="W4" s="88"/>
       <c r="X4" s="90"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -4261,7 +4240,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4329,7 +4308,7 @@
       <c r="W6" s="60"/>
       <c r="X6" s="60"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4397,7 +4376,7 @@
       <c r="W7" s="60"/>
       <c r="X7" s="60"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4465,7 +4444,7 @@
       <c r="W8" s="60"/>
       <c r="X8" s="60"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4533,7 +4512,7 @@
       <c r="W9" s="60"/>
       <c r="X9" s="60"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4601,7 +4580,7 @@
       <c r="W10" s="60"/>
       <c r="X10" s="60"/>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4669,7 +4648,7 @@
       <c r="W11" s="60"/>
       <c r="X11" s="60"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4737,7 +4716,7 @@
       <c r="W12" s="60"/>
       <c r="X12" s="60"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -4805,7 +4784,7 @@
       </c>
       <c r="X13" s="60"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -4873,7 +4852,7 @@
       </c>
       <c r="X14" s="60"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -4941,7 +4920,7 @@
       </c>
       <c r="X15" s="60"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -5011,7 +4990,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -5079,7 +5058,7 @@
       <c r="W17" s="60"/>
       <c r="X17" s="60"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -5147,7 +5126,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="60"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -5215,7 +5194,7 @@
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -5283,7 +5262,7 @@
       <c r="W20" s="60"/>
       <c r="X20" s="60"/>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -5351,7 +5330,7 @@
       <c r="W21" s="60"/>
       <c r="X21" s="60"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -5419,7 +5398,7 @@
       <c r="W22" s="60"/>
       <c r="X22" s="60"/>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -5479,7 +5458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -5547,7 +5526,7 @@
       <c r="W24" s="60"/>
       <c r="X24" s="60"/>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -5617,7 +5596,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -5685,7 +5664,7 @@
       <c r="W26" s="60"/>
       <c r="X26" s="60"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -5753,7 +5732,7 @@
       <c r="W27" s="60"/>
       <c r="X27" s="60"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -5821,7 +5800,7 @@
       <c r="W28" s="60"/>
       <c r="X28" s="60"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -5889,7 +5868,7 @@
       <c r="W29" s="60"/>
       <c r="X29" s="60"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -5959,7 +5938,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>27</v>
       </c>
@@ -6017,61 +5996,66 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
+    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
     </row>
     <row r="33" spans="1:24" ht="137.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A33:X33"/>
@@ -6088,11 +6072,6 @@
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thong bao" error="Nhập số từ 0 đến 10" sqref="E5:I31">
@@ -6110,108 +6089,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="8" width="4.08984375" customWidth="1"/>
+    <col min="6" max="8" width="4.109375" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="3.54296875" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" customWidth="1"/>
-    <col min="13" max="13" width="3.90625" customWidth="1"/>
-    <col min="14" max="16" width="3.6328125" customWidth="1"/>
-    <col min="17" max="17" width="4.453125" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" customWidth="1"/>
-    <col min="22" max="22" width="5.36328125" customWidth="1"/>
-    <col min="23" max="23" width="6.36328125" customWidth="1"/>
-    <col min="24" max="24" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" customWidth="1"/>
+    <col min="14" max="16" width="3.6640625" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-    </row>
-    <row r="2" spans="1:24" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+    </row>
+    <row r="2" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="82"/>
+      <c r="E3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="82" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="83"/>
+      <c r="H3" s="84"/>
       <c r="I3" s="80" t="s">
         <v>30</v>
       </c>
@@ -6235,14 +6214,14 @@
       <c r="Q3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="82" t="s">
+      <c r="S3" s="84"/>
+      <c r="T3" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="83"/>
+      <c r="U3" s="84"/>
       <c r="V3" s="80" t="s">
         <v>65</v>
       </c>
@@ -6253,11 +6232,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -6303,17 +6282,19 @@
       <c r="W4" s="81"/>
       <c r="X4" s="93"/>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="8">
         <v>7</v>
       </c>
@@ -6369,17 +6350,17 @@
       <c r="W5" s="47"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="15" t="s">
         <v>161</v>
       </c>
       <c r="E6" s="16">
@@ -6437,17 +6418,17 @@
       </c>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="16">
@@ -6505,17 +6486,17 @@
       <c r="W7" s="16"/>
       <c r="X7" s="19"/>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="16">
@@ -6573,17 +6554,17 @@
       </c>
       <c r="X8" s="19"/>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="16">
@@ -6641,17 +6622,17 @@
       </c>
       <c r="X9" s="19"/>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="16">
@@ -6711,17 +6692,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="15" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="16">
@@ -6779,17 +6760,17 @@
       <c r="W11" s="16"/>
       <c r="X11" s="19"/>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E12" s="16">
@@ -6847,17 +6828,17 @@
       <c r="W12" s="16"/>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="16">
@@ -6915,17 +6896,17 @@
       <c r="W13" s="16"/>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="16">
@@ -6983,17 +6964,17 @@
       <c r="W14" s="16"/>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="15" t="s">
         <v>170</v>
       </c>
       <c r="E15" s="16"/>
@@ -7017,17 +6998,17 @@
       <c r="W15" s="16"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="16"/>
@@ -7051,17 +7032,17 @@
       <c r="W16" s="16"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="16">
@@ -7119,17 +7100,17 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="16">
@@ -7187,17 +7168,17 @@
       <c r="W18" s="16"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="16">
@@ -7255,17 +7236,17 @@
       </c>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="16">
@@ -7323,17 +7304,17 @@
       <c r="W20" s="16"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="15" t="s">
         <v>178</v>
       </c>
       <c r="E21" s="16">
@@ -7391,17 +7372,17 @@
       <c r="W21" s="16"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="15" t="s">
         <v>146</v>
       </c>
       <c r="E22" s="16">
@@ -7459,17 +7440,17 @@
       <c r="W22" s="16"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="15" t="s">
         <v>181</v>
       </c>
       <c r="E23" s="16">
@@ -7529,17 +7510,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="15" t="s">
         <v>150</v>
       </c>
       <c r="E24" s="16">
@@ -7597,17 +7578,17 @@
       <c r="W24" s="16"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="15" t="s">
         <v>184</v>
       </c>
       <c r="E25" s="16">
@@ -7665,17 +7646,17 @@
       <c r="W25" s="16"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="15" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="16">
@@ -7733,17 +7714,17 @@
       </c>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="15" t="s">
         <v>115</v>
       </c>
       <c r="E27" s="16">
@@ -7801,17 +7782,17 @@
       <c r="W27" s="16"/>
       <c r="X27" s="19"/>
     </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="15" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="16">
@@ -7869,17 +7850,17 @@
       <c r="W28" s="16"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="15" t="s">
         <v>189</v>
       </c>
       <c r="E29" s="16">
@@ -7937,17 +7918,17 @@
       <c r="W29" s="16"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="15" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="16">
@@ -8005,17 +7986,17 @@
       <c r="W30" s="16"/>
       <c r="X30" s="19"/>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E31" s="16">
@@ -8073,17 +8054,17 @@
       <c r="W31" s="16"/>
       <c r="X31" s="19"/>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>28</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="24" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="25">
@@ -8141,7 +8122,7 @@
       <c r="W32" s="25"/>
       <c r="X32" s="22"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8167,61 +8148,61 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="76" t="s">
+    <row r="34" spans="1:24" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-    </row>
-    <row r="35" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="77"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="91"/>
       <c r="B36" s="91"/>
       <c r="C36" s="91"/>
@@ -8247,7 +8228,7 @@
       <c r="W36" s="91"/>
       <c r="X36" s="91"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="91"/>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
@@ -8274,42 +8255,7 @@
       <c r="X37" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A36:X36"/>
     <mergeCell ref="A37:X37"/>
@@ -8326,6 +8272,13 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Thong bao" error="Nhập số từ 0 đến 10" sqref="E5:I32">
